--- a/biology/Botanique/Keraji/Keraji.xlsx
+++ b/biology/Botanique/Keraji/Keraji.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Keraji ou Ryoji Hana, Citrus keraji est une petite mandarine endémique de l'île de Kikai-shima, archipel Satsunan, préfecture de Kagoshima.  
 Comme beaucoup de ces mini mandarines sa culture est en déclin et il devient rare. 
@@ -512,11 +524,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">花良治 (Keraji) Keraji est un village de l'ile de Kikai 喜界町, (Kikai-chō),  ile coralienne[1] du district d'Ōshima, Préfecture de Kagoshima (latitude 28,29 °nord) qui a donné son nom à la petite mandarine Keraji. ケラジミカン (Keraji mikan) ou  ケラジ (Keraji), en kanji 花良治 (Keraji ou keraji Hana Ryōji) [2]  
-Nom botanique : Citrus ×keraji Yu.Tanaka (1948)[3], synonyme Citrus nobilis var. kikaijimense Tanaka[4], Citrus Keraji Hort . ex Tanaka
-Il ne faut pas confondre Keraji (C. keraji) et Kabuchi (C. keraji var. kabuchii Hort. ex Tanaka) les chromosomes sont différents Keraji = 1A+1B+7D+8E+1F et Kabuchi =  2B+2C+5D+7E+2F[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">花良治 (Keraji) Keraji est un village de l'ile de Kikai 喜界町, (Kikai-chō),  ile coralienne du district d'Ōshima, Préfecture de Kagoshima (latitude 28,29 °nord) qui a donné son nom à la petite mandarine Keraji. ケラジミカン (Keraji mikan) ou  ケラジ (Keraji), en kanji 花良治 (Keraji ou keraji Hana Ryōji)   
+Nom botanique : Citrus ×keraji Yu.Tanaka (1948), synonyme Citrus nobilis var. kikaijimense Tanaka, Citrus Keraji Hort . ex Tanaka
+Il ne faut pas confondre Keraji (C. keraji) et Kabuchi (C. keraji var. kabuchii Hort. ex Tanaka) les chromosomes sont différents Keraji = 1A+1B+7D+8E+1F et Kabuchi =  2B+2C+5D+7E+2F.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La culture aurait commencé il y a 2 siècles (2005). La production connait le succès sous l'ère Taishō. En 1927 à la suite d'une interdiction d'exportation motivée par des raisons sanitaires la culture décline. La plante demande une dizaine d'années avant de produire des fruits de qualité, le déclin se poursuit à tel point qu'elle est en danger de disparition (2012) et qu'une 花良治みかん振興会 (Keraji mikan shinkō-kai) association pour l'agrume keraji a été créée[6], elle devra affronter un autre déclin continu, celui de la démographie de l'ile.  
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La culture aurait commencé il y a 2 siècles (2005). La production connait le succès sous l'ère Taishō. En 1927 à la suite d'une interdiction d'exportation motivée par des raisons sanitaires la culture décline. La plante demande une dizaine d'années avant de produire des fruits de qualité, le déclin se poursuit à tel point qu'elle est en danger de disparition (2012) et qu'une 花良治みかん振興会 (Keraji mikan shinkō-kai) association pour l'agrume keraji a été créée, elle devra affronter un autre déclin continu, celui de la démographie de l'ile.  
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Keraji est une progéniture rétrocroisée de Kunenbo-A, il partage tous les allèles avec kabuchi et kunenbo-A (Citrus nobilis) (Shimizu et al. 2016)[7]. En 2021, M. Yamamoto et al. confirment l'analyse: Keraji (C. keraji) est une hybridation Kunenbo et Kabuchi[8]. Keraji est auto-incompatible mais compatible avec les diverses accessions de Kunenbo (elles-mêmes auto-incompatibles)[9]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Keraji est une progéniture rétrocroisée de Kunenbo-A, il partage tous les allèles avec kabuchi et kunenbo-A (Citrus nobilis) (Shimizu et al. 2016). En 2021, M. Yamamoto et al. confirment l'analyse: Keraji (C. keraji) est une hybridation Kunenbo et Kabuchi. Keraji est auto-incompatible mais compatible avec les diverses accessions de Kunenbo (elles-mêmes auto-incompatibles). 
 </t>
         </is>
       </c>
@@ -607,13 +625,50 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fruit est une petite mandarine qui se récolte verte, la saison va d'octobre à décembre[6], l'acidité diminuant rapidement avec la maturité elle n'est comestible qu'encore verte[10]. Le poids du fruit va de 54 à 100 g, autrement dit un peu plus gros que kabuchi[11]. 
-La plante serait résistante au gel de  −12 °C[12]. Keraji est mentionnée sensible au Citrus leprosis virus C[13].
-Huile essentielle
-Une comparaison des HE d'agrumes de Kikaijima: Keraji, Shiiku,  Kunenbo, Fusuu (C. rokugatsu hort. ex Y. Tanaka) et Kabuchi cultivar Kuriha (2017) montre que Keraji et Kabuchi contiennent de grandes quantités de polyméthoxyflavonoïdes. 
-Keraji et Kunenbo sont riches en β-myrcène ce qui n'est pas le cas du Kabuchi, à l'inverse ce dernier est riche en γ-terpinène et keraji non. La comparaison avec le Kabuchi cultivar Kuriha montre que les HE ne sont pas proches[14]. Tout en sachant que le parfum est variable: dans la comparaison Keraji-kabuchi par Yamamoto et al. (2003) les auteurs notent les parfums des fruits et ils donnent à 2 keraji récoltés en novembre le parfum de Kabuchi[11].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est une petite mandarine qui se récolte verte, la saison va d'octobre à décembre, l'acidité diminuant rapidement avec la maturité elle n'est comestible qu'encore verte. Le poids du fruit va de 54 à 100 g, autrement dit un peu plus gros que kabuchi. 
+La plante serait résistante au gel de  −12 °C. Keraji est mentionnée sensible au Citrus leprosis virus C.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Keraji</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Keraji</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Huile essentielle</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une comparaison des HE d'agrumes de Kikaijima: Keraji, Shiiku,  Kunenbo, Fusuu (C. rokugatsu hort. ex Y. Tanaka) et Kabuchi cultivar Kuriha (2017) montre que Keraji et Kabuchi contiennent de grandes quantités de polyméthoxyflavonoïdes. 
+Keraji et Kunenbo sont riches en β-myrcène ce qui n'est pas le cas du Kabuchi, à l'inverse ce dernier est riche en γ-terpinène et keraji non. La comparaison avec le Kabuchi cultivar Kuriha montre que les HE ne sont pas proches. Tout en sachant que le parfum est variable: dans la comparaison Keraji-kabuchi par Yamamoto et al. (2003) les auteurs notent les parfums des fruits et ils donnent à 2 keraji récoltés en novembre le parfum de Kabuchi.
 </t>
         </is>
       </c>
